--- a/TejToolAPI/tables/columns_group.xlsx
+++ b/TejToolAPI/tables/columns_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2022011702\Anaconda3\envs\zipline-tej2\Lib\site-packages\TejToolAPI\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BADE49B-302F-4C76-96F1-B166A24B9F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B13050-A7C5-4439-B184-B2FB5058D02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2865" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_columns" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="2176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4813" uniqueCount="2173">
   <si>
     <t>TABLE_NAMES</t>
   </si>
@@ -6316,15 +6316,6 @@
   </si>
   <si>
     <t>Unified_Identification_Number</t>
-  </si>
-  <si>
-    <t>nchar(6)</t>
-  </si>
-  <si>
-    <t>上市別</t>
-  </si>
-  <si>
-    <t>Listing_Type</t>
   </si>
   <si>
     <t>最近一次上市日</t>
@@ -7002,8 +6993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A704" workbookViewId="0">
-      <selection activeCell="K716" sqref="K716"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7025,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,7 +7032,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7049,7 +7040,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7057,7 +7048,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7065,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10809,7 +10800,7 @@
         <v>455</v>
       </c>
       <c r="B475" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -12209,7 +12200,7 @@
         <v>625</v>
       </c>
       <c r="B650" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -12985,10 +12976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E728"/>
+  <dimension ref="A1:E727"/>
   <sheetViews>
-    <sheetView topLeftCell="A710" workbookViewId="0">
-      <selection activeCell="D658" sqref="D658"/>
+    <sheetView topLeftCell="A706" workbookViewId="0">
+      <selection activeCell="D733" sqref="D733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13090,16 +13081,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C6" t="s">
         <v>728</v>
       </c>
       <c r="D6" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="E6" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -13107,16 +13098,16 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D7" t="s">
         <v>2156</v>
       </c>
-      <c r="C7" t="s">
-        <v>2157</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2159</v>
-      </c>
       <c r="E7" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13124,13 +13115,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="C8" t="s">
         <v>731</v>
       </c>
       <c r="D8" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="E8" t="s">
         <v>732</v>
@@ -13141,13 +13132,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="C9" t="s">
         <v>733</v>
       </c>
       <c r="D9" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="E9" t="s">
         <v>734</v>
@@ -13158,16 +13149,16 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C10" t="s">
         <v>731</v>
       </c>
       <c r="D10" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="E10" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13175,16 +13166,16 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C11" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="D11" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="E11" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -20545,7 +20536,7 @@
         <v>455</v>
       </c>
       <c r="B480" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="D480" t="s">
         <v>1641</v>
@@ -22995,7 +22986,7 @@
         <v>625</v>
       </c>
       <c r="B655" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="D655" t="s">
         <v>1651</v>
@@ -23912,16 +23903,16 @@
         <v>678</v>
       </c>
       <c r="B719" t="s">
-        <v>3</v>
+        <v>684</v>
       </c>
       <c r="C719" t="s">
+        <v>722</v>
+      </c>
+      <c r="D719" t="s">
         <v>2085</v>
       </c>
-      <c r="D719" t="s">
+      <c r="E719" t="s">
         <v>2086</v>
-      </c>
-      <c r="E719" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
@@ -23929,16 +23920,16 @@
         <v>678</v>
       </c>
       <c r="B720" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C720" t="s">
         <v>722</v>
       </c>
       <c r="D720" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E720" t="s">
         <v>2088</v>
-      </c>
-      <c r="E720" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
@@ -23946,16 +23937,16 @@
         <v>678</v>
       </c>
       <c r="B721" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C721" t="s">
         <v>722</v>
       </c>
       <c r="D721" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E721" t="s">
         <v>2090</v>
-      </c>
-      <c r="E721" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.25">
@@ -23963,16 +23954,16 @@
         <v>678</v>
       </c>
       <c r="B722" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C722" t="s">
         <v>722</v>
       </c>
       <c r="D722" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E722" t="s">
         <v>2092</v>
-      </c>
-      <c r="E722" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
@@ -23980,16 +23971,16 @@
         <v>678</v>
       </c>
       <c r="B723" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C723" t="s">
         <v>722</v>
       </c>
       <c r="D723" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E723" t="s">
         <v>2094</v>
-      </c>
-      <c r="E723" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.25">
@@ -23997,10 +23988,10 @@
         <v>678</v>
       </c>
       <c r="B724" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C724" t="s">
-        <v>722</v>
+        <v>2095</v>
       </c>
       <c r="D724" t="s">
         <v>2096</v>
@@ -24014,16 +24005,16 @@
         <v>678</v>
       </c>
       <c r="B725" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C725" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D725" t="s">
         <v>2098</v>
       </c>
-      <c r="D725" t="s">
+      <c r="E725" t="s">
         <v>2099</v>
-      </c>
-      <c r="E725" t="s">
-        <v>2100</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.25">
@@ -24031,10 +24022,10 @@
         <v>678</v>
       </c>
       <c r="B726" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C726" t="s">
-        <v>2075</v>
+        <v>2100</v>
       </c>
       <c r="D726" t="s">
         <v>2101</v>
@@ -24048,33 +24039,16 @@
         <v>678</v>
       </c>
       <c r="B727" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C727" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D727" t="s">
         <v>2103</v>
       </c>
-      <c r="D727" t="s">
+      <c r="E727" t="s">
         <v>2104</v>
-      </c>
-      <c r="E727" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>678</v>
-      </c>
-      <c r="B728" t="s">
-        <v>692</v>
-      </c>
-      <c r="C728" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D728" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E728" t="s">
-        <v>2107</v>
       </c>
     </row>
   </sheetData>
@@ -24099,10 +24073,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B1" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -24110,7 +24084,7 @@
         <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -24118,7 +24092,7 @@
         <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -24126,7 +24100,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -24134,15 +24108,15 @@
         <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B6" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -24150,7 +24124,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -24158,95 +24132,95 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B9" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B10" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B11" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B12" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B15" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="B16" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B17" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B18" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B19" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
     </row>
   </sheetData>
@@ -24274,13 +24248,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B1" t="s">
         <v>693</v>
       </c>
       <c r="C1" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -24288,10 +24262,10 @@
         <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="C2" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -24299,10 +24273,10 @@
         <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="C3" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -24310,10 +24284,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="C4" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -24324,18 +24298,18 @@
         <v>697</v>
       </c>
       <c r="C5" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B6" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="C6" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -24346,7 +24320,7 @@
         <v>700</v>
       </c>
       <c r="C7" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -24354,131 +24328,131 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="C8" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B9" t="s">
         <v>703</v>
       </c>
       <c r="C9" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B10" t="s">
         <v>705</v>
       </c>
       <c r="C10" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B11" t="s">
         <v>706</v>
       </c>
       <c r="C11" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B12" t="s">
         <v>708</v>
       </c>
       <c r="C12" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B13" t="s">
         <v>710</v>
       </c>
       <c r="C13" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B14" t="s">
         <v>711</v>
       </c>
       <c r="C14" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B15" t="s">
         <v>712</v>
       </c>
       <c r="C15" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="B16" t="s">
         <v>714</v>
       </c>
       <c r="C16" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B17" t="s">
         <v>716</v>
       </c>
       <c r="C17" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B18" t="s">
         <v>717</v>
       </c>
       <c r="C18" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B19" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C19" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
     </row>
   </sheetData>
@@ -24492,8 +24466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24504,10 +24478,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B1" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -24568,7 +24542,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -24576,7 +24550,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -24584,7 +24558,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -24592,7 +24566,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -24600,7 +24574,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -24608,7 +24582,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -24616,7 +24590,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -24640,7 +24614,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -24648,7 +24622,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -24665,18 +24639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B1" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -24684,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -24700,7 +24674,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -24708,7 +24682,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
     </row>
   </sheetData>

--- a/TejToolAPI/tables/columns_group.xlsx
+++ b/TejToolAPI/tables/columns_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2022040601\Desktop\TEJ_TOOL_API\TejToolAPI\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8745790F-1CEF-4CB8-A13C-0FA4166F6FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1591689-CE71-4841-A92F-8DB90961812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_columns" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="fin_invest_tables" sheetId="6" r:id="rId5"/>
     <sheet name="table_od" sheetId="3" r:id="rId6"/>
     <sheet name="merge_keys" sheetId="4" r:id="rId7"/>
+    <sheet name="self_cover_code" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">API!$A$1:$B$18</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="2087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5122" uniqueCount="2075">
   <si>
     <t>TABLE_NAMES</t>
   </si>
@@ -6022,9 +6023,6 @@
     <t>a3100</t>
   </si>
   <si>
-    <t>營業收入淨額</t>
-  </si>
-  <si>
     <t>a3200</t>
   </si>
   <si>
@@ -6034,9 +6032,6 @@
     <t>a3295</t>
   </si>
   <si>
-    <t>營業毛利</t>
-  </si>
-  <si>
     <t>a3300</t>
   </si>
   <si>
@@ -6058,9 +6053,6 @@
     <t>a3900</t>
   </si>
   <si>
-    <t>稅前淨利</t>
-  </si>
-  <si>
     <t>a3910</t>
   </si>
   <si>
@@ -6076,15 +6068,9 @@
     <t>a3970</t>
   </si>
   <si>
-    <t>合併總損益</t>
-  </si>
-  <si>
     <t>a3950</t>
   </si>
   <si>
-    <t>每股盈餘</t>
-  </si>
-  <si>
     <t>a211f</t>
   </si>
   <si>
@@ -6169,9 +6155,6 @@
     <t>每股營業額</t>
   </si>
   <si>
-    <t>每股稅前淨利</t>
-  </si>
-  <si>
     <t>總資產成長率</t>
   </si>
   <si>
@@ -6254,10 +6237,6 @@
   </si>
   <si>
     <t>a340f</t>
-  </si>
-  <si>
-    <t>歸屬母公司淨利_損</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增資準備_約當股數</t>
@@ -6295,24 +6274,12 @@
     <t>NCI</t>
   </si>
   <si>
-    <t>Total_CI</t>
-  </si>
-  <si>
     <t>Common_Stock_Shares</t>
   </si>
   <si>
     <t>Preferred_Stock_Shares</t>
   </si>
   <si>
-    <t>Gross_Margin_Ratio</t>
-  </si>
-  <si>
-    <t>Operating_Income_Ratio</t>
-  </si>
-  <si>
-    <t>Net_Income_Ratio</t>
-  </si>
-  <si>
     <t>R&amp;D_Expenses_Ratio</t>
   </si>
   <si>
@@ -6328,9 +6295,6 @@
     <t>Days_Payable_Outstanding</t>
   </si>
   <si>
-    <t>Pre_Tax_Income_Ratio</t>
-  </si>
-  <si>
     <t>Net_Non_Operating_Income_Ratio</t>
   </si>
   <si>
@@ -6340,21 +6304,6 @@
     <t>ROE_After_Tax</t>
   </si>
   <si>
-    <t>Net_Operating_Revenue_Growth_Rate_YOY</t>
-  </si>
-  <si>
-    <t>Gross_Operating_Profit_Growth_Rate_YOY</t>
-  </si>
-  <si>
-    <t>Operating_Income_Growth_Rate_YOY</t>
-  </si>
-  <si>
-    <t>Pre_Tax_Income_Growth_Rate_YOY</t>
-  </si>
-  <si>
-    <t>Net_Income_Growth_Rate_YOY</t>
-  </si>
-  <si>
     <t>Total_Assets_Growth_Rate_YOY</t>
   </si>
   <si>
@@ -6367,19 +6316,10 @@
     <t>Total_Equity_Attributable_To_Owners_Of_Parent</t>
   </si>
   <si>
-    <t>Total_Operating_Revenue</t>
-  </si>
-  <si>
     <t>Total_Operating_Costs</t>
   </si>
   <si>
-    <t>Gross_Profit_Loss_From_Operations</t>
-  </si>
-  <si>
     <t>Total_Non_Operating_Income_And_Expenses</t>
-  </si>
-  <si>
-    <t>Profit_Loss_Before_Tax</t>
   </si>
   <si>
     <t>Profit_Loss_From_Continuing_Operations</t>
@@ -6462,10 +6402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Profit_Loss_Attributable_To_Owners_Of_Parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Earnings_Before_Interest_Tax_Depreciation_And_Amortization</t>
   </si>
   <si>
@@ -6484,6 +6420,41 @@
   </si>
   <si>
     <t>shrm_8_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母公司每股盈餘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fin_self_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3970</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3990</t>
+  </si>
+  <si>
+    <t>淨利潤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12099,7 +12070,7 @@
         <v>149</v>
       </c>
       <c r="B477" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C477" t="s">
         <v>1869</v>
@@ -12110,7 +12081,7 @@
         <v>149</v>
       </c>
       <c r="B478" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C478" t="s">
         <v>1869</v>
@@ -12121,7 +12092,7 @@
         <v>149</v>
       </c>
       <c r="B479" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C479" t="s">
         <v>1869</v>
@@ -12132,7 +12103,7 @@
         <v>149</v>
       </c>
       <c r="B480" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="C480" t="s">
         <v>1869</v>
@@ -12143,7 +12114,7 @@
         <v>149</v>
       </c>
       <c r="B481" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C481" t="s">
         <v>1869</v>
@@ -12154,7 +12125,7 @@
         <v>149</v>
       </c>
       <c r="B482" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C482" t="s">
         <v>1869</v>
@@ -12165,7 +12136,7 @@
         <v>149</v>
       </c>
       <c r="B483" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C483" t="s">
         <v>1869</v>
@@ -12176,7 +12147,7 @@
         <v>149</v>
       </c>
       <c r="B484" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C484" t="s">
         <v>1869</v>
@@ -12187,7 +12158,7 @@
         <v>149</v>
       </c>
       <c r="B485" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="C485" t="s">
         <v>1869</v>
@@ -12198,7 +12169,7 @@
         <v>149</v>
       </c>
       <c r="B486" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="C486" t="s">
         <v>1869</v>
@@ -12209,7 +12180,7 @@
         <v>149</v>
       </c>
       <c r="B487" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="C487" t="s">
         <v>1869</v>
@@ -12220,7 +12191,7 @@
         <v>149</v>
       </c>
       <c r="B488" t="s">
-        <v>2085</v>
+        <v>2064</v>
       </c>
       <c r="C488" t="s">
         <v>1869</v>
@@ -12231,7 +12202,7 @@
         <v>149</v>
       </c>
       <c r="B489" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="C489" t="s">
         <v>1869</v>
@@ -12242,7 +12213,7 @@
         <v>149</v>
       </c>
       <c r="B490" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="C490" t="s">
         <v>1869</v>
@@ -12253,7 +12224,7 @@
         <v>149</v>
       </c>
       <c r="B491" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="C491" t="s">
         <v>1869</v>
@@ -12264,7 +12235,7 @@
         <v>149</v>
       </c>
       <c r="B492" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="C492" t="s">
         <v>1869</v>
@@ -12275,7 +12246,7 @@
         <v>149</v>
       </c>
       <c r="B493" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="C493" t="s">
         <v>1869</v>
@@ -12286,7 +12257,7 @@
         <v>149</v>
       </c>
       <c r="B494" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C494" t="s">
         <v>1869</v>
@@ -12297,7 +12268,7 @@
         <v>149</v>
       </c>
       <c r="B495" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="C495" t="s">
         <v>1869</v>
@@ -12308,7 +12279,7 @@
         <v>149</v>
       </c>
       <c r="B496" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="C496" t="s">
         <v>1869</v>
@@ -12319,7 +12290,7 @@
         <v>149</v>
       </c>
       <c r="B497" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="C497" t="s">
         <v>1869</v>
@@ -12330,7 +12301,7 @@
         <v>149</v>
       </c>
       <c r="B498" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="C498" t="s">
         <v>1869</v>
@@ -12341,7 +12312,7 @@
         <v>149</v>
       </c>
       <c r="B499" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="C499" t="s">
         <v>1869</v>
@@ -12352,7 +12323,7 @@
         <v>149</v>
       </c>
       <c r="B500" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C500" t="s">
         <v>1869</v>
@@ -12363,7 +12334,7 @@
         <v>149</v>
       </c>
       <c r="B501" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="C501" t="s">
         <v>1869</v>
@@ -12374,7 +12345,7 @@
         <v>149</v>
       </c>
       <c r="B502" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C502" t="s">
         <v>1869</v>
@@ -12385,7 +12356,7 @@
         <v>149</v>
       </c>
       <c r="B503" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="C503" t="s">
         <v>1869</v>
@@ -12462,7 +12433,7 @@
         <v>149</v>
       </c>
       <c r="B510" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C510" t="s">
         <v>1869</v>
@@ -12759,7 +12730,7 @@
         <v>149</v>
       </c>
       <c r="B537" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C537" t="s">
         <v>1869</v>
@@ -12770,7 +12741,7 @@
         <v>149</v>
       </c>
       <c r="B538" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C538" t="s">
         <v>1869</v>
@@ -12781,7 +12752,7 @@
         <v>149</v>
       </c>
       <c r="B539" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C539" t="s">
         <v>1869</v>
@@ -12792,7 +12763,7 @@
         <v>149</v>
       </c>
       <c r="B540" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C540" t="s">
         <v>1869</v>
@@ -12803,7 +12774,7 @@
         <v>149</v>
       </c>
       <c r="B541" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C541" t="s">
         <v>1869</v>
@@ -12814,7 +12785,7 @@
         <v>149</v>
       </c>
       <c r="B542" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="C542" t="s">
         <v>1869</v>
@@ -12825,7 +12796,7 @@
         <v>149</v>
       </c>
       <c r="B543" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="C543" t="s">
         <v>1869</v>
@@ -12836,7 +12807,7 @@
         <v>149</v>
       </c>
       <c r="B544" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C544" t="s">
         <v>1869</v>
@@ -12847,7 +12818,7 @@
         <v>149</v>
       </c>
       <c r="B545" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C545" t="s">
         <v>1869</v>
@@ -12858,7 +12829,7 @@
         <v>149</v>
       </c>
       <c r="B546" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C546" t="s">
         <v>1869</v>
@@ -12869,7 +12840,7 @@
         <v>149</v>
       </c>
       <c r="B547" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C547" t="s">
         <v>1869</v>
@@ -21179,7 +21150,7 @@
         <v>1927</v>
       </c>
       <c r="E472" t="s">
-        <v>2047</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -21207,7 +21178,7 @@
         <v>1930</v>
       </c>
       <c r="E474" t="s">
-        <v>2048</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -21221,7 +21192,7 @@
         <v>907</v>
       </c>
       <c r="E475" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -21249,7 +21220,7 @@
         <v>1935</v>
       </c>
       <c r="E477" t="s">
-        <v>2078</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -21260,10 +21231,10 @@
         <v>1936</v>
       </c>
       <c r="D478" t="s">
-        <v>1937</v>
+        <v>916</v>
       </c>
       <c r="E478" t="s">
-        <v>2049</v>
+        <v>917</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -21271,13 +21242,13 @@
         <v>149</v>
       </c>
       <c r="B479" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D479" t="s">
         <v>1938</v>
       </c>
-      <c r="D479" t="s">
-        <v>1939</v>
-      </c>
       <c r="E479" t="s">
-        <v>2050</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -21285,13 +21256,13 @@
         <v>149</v>
       </c>
       <c r="B480" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D480" t="s">
-        <v>1941</v>
+        <v>929</v>
       </c>
       <c r="E480" t="s">
-        <v>2051</v>
+        <v>930</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -21299,7 +21270,7 @@
         <v>149</v>
       </c>
       <c r="B481" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D481" t="s">
         <v>918</v>
@@ -21313,7 +21284,7 @@
         <v>149</v>
       </c>
       <c r="B482" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D482" t="s">
         <v>931</v>
@@ -21327,13 +21298,13 @@
         <v>149</v>
       </c>
       <c r="B483" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D483" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="E483" t="s">
-        <v>2079</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -21341,13 +21312,13 @@
         <v>149</v>
       </c>
       <c r="B484" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D484" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="E484" t="s">
-        <v>2052</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -21355,13 +21326,13 @@
         <v>149</v>
       </c>
       <c r="B485" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D485" t="s">
-        <v>1949</v>
+        <v>921</v>
       </c>
       <c r="E485" t="s">
-        <v>2053</v>
+        <v>922</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -21369,10 +21340,10 @@
         <v>149</v>
       </c>
       <c r="B486" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D486" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="E486" t="s">
         <v>920</v>
@@ -21383,13 +21354,13 @@
         <v>149</v>
       </c>
       <c r="B487" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D487" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="E487" t="s">
-        <v>2054</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -21397,13 +21368,13 @@
         <v>149</v>
       </c>
       <c r="B488" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D488" t="s">
-        <v>1955</v>
+        <v>923</v>
       </c>
       <c r="E488" t="s">
-        <v>2025</v>
+        <v>924</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -21411,13 +21382,13 @@
         <v>149</v>
       </c>
       <c r="B489" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="D489" t="s">
-        <v>2015</v>
+        <v>925</v>
       </c>
       <c r="E489" t="s">
-        <v>2080</v>
+        <v>926</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -21425,10 +21396,10 @@
         <v>149</v>
       </c>
       <c r="B490" t="s">
-        <v>2085</v>
+        <v>2064</v>
       </c>
       <c r="D490" t="s">
-        <v>1957</v>
+        <v>927</v>
       </c>
       <c r="E490" t="s">
         <v>928</v>
@@ -21439,13 +21410,13 @@
         <v>149</v>
       </c>
       <c r="B491" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="D491" t="s">
         <v>934</v>
       </c>
       <c r="E491" t="s">
-        <v>2055</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -21453,13 +21424,13 @@
         <v>149</v>
       </c>
       <c r="B492" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="D492" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E492" t="s">
-        <v>2056</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -21467,13 +21438,13 @@
         <v>149</v>
       </c>
       <c r="B493" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="D493" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="E493" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -21481,13 +21452,13 @@
         <v>149</v>
       </c>
       <c r="B494" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="D494" t="s">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="E494" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -21495,13 +21466,13 @@
         <v>149</v>
       </c>
       <c r="B495" t="s">
-        <v>1964</v>
+        <v>1959</v>
       </c>
       <c r="D495" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E495" t="s">
-        <v>2057</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -21509,13 +21480,13 @@
         <v>149</v>
       </c>
       <c r="B496" t="s">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="D496" t="s">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="E496" t="s">
-        <v>2058</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -21523,13 +21494,13 @@
         <v>149</v>
       </c>
       <c r="B497" t="s">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="D497" t="s">
         <v>933</v>
       </c>
       <c r="E497" t="s">
-        <v>2059</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -21537,13 +21508,13 @@
         <v>149</v>
       </c>
       <c r="B498" t="s">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="D498" t="s">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="E498" t="s">
-        <v>2081</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -21551,13 +21522,13 @@
         <v>149</v>
       </c>
       <c r="B499" t="s">
-        <v>1970</v>
+        <v>1965</v>
       </c>
       <c r="D499" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="E499" t="s">
-        <v>2060</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -21565,13 +21536,13 @@
         <v>149</v>
       </c>
       <c r="B500" t="s">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="D500" t="s">
-        <v>1973</v>
+        <v>1968</v>
       </c>
       <c r="E500" t="s">
-        <v>2061</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -21579,13 +21550,13 @@
         <v>149</v>
       </c>
       <c r="B501" t="s">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="D501" t="s">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="E501" t="s">
-        <v>2062</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -21593,13 +21564,13 @@
         <v>149</v>
       </c>
       <c r="B502" t="s">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="D502" t="s">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="E502" t="s">
-        <v>2063</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -21607,13 +21578,13 @@
         <v>149</v>
       </c>
       <c r="B503" t="s">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="D503" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E503" t="s">
-        <v>2064</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -21621,13 +21592,13 @@
         <v>149</v>
       </c>
       <c r="B504" t="s">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="D504" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E504" t="s">
-        <v>2039</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -21635,13 +21606,13 @@
         <v>149</v>
       </c>
       <c r="B505" t="s">
-        <v>1980</v>
+        <v>1975</v>
       </c>
       <c r="D505" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="E505" t="s">
-        <v>2082</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -21655,7 +21626,7 @@
         <v>935</v>
       </c>
       <c r="E506" t="s">
-        <v>2028</v>
+        <v>936</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -21669,7 +21640,7 @@
         <v>937</v>
       </c>
       <c r="E507" t="s">
-        <v>2029</v>
+        <v>938</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -21683,7 +21654,7 @@
         <v>939</v>
       </c>
       <c r="E508" t="s">
-        <v>2036</v>
+        <v>940</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -21697,7 +21668,7 @@
         <v>941</v>
       </c>
       <c r="E509" t="s">
-        <v>2030</v>
+        <v>942</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -21708,10 +21679,10 @@
         <v>163</v>
       </c>
       <c r="D510" t="s">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="E510" t="s">
-        <v>2037</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -21733,13 +21704,13 @@
         <v>149</v>
       </c>
       <c r="B512" t="s">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="D512" t="s">
-        <v>1984</v>
+        <v>1979</v>
       </c>
       <c r="E512" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -21753,7 +21724,7 @@
         <v>959</v>
       </c>
       <c r="E513" t="s">
-        <v>2032</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
@@ -21764,10 +21735,10 @@
         <v>185</v>
       </c>
       <c r="D514" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="E514" t="s">
-        <v>2065</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -21778,7 +21749,7 @@
         <v>186</v>
       </c>
       <c r="D515" t="s">
-        <v>1985</v>
+        <v>1980</v>
       </c>
       <c r="E515" t="s">
         <v>969</v>
@@ -21806,7 +21777,7 @@
         <v>188</v>
       </c>
       <c r="D517" t="s">
-        <v>1986</v>
+        <v>972</v>
       </c>
       <c r="E517" t="s">
         <v>973</v>
@@ -21823,7 +21794,7 @@
         <v>945</v>
       </c>
       <c r="E518" t="s">
-        <v>2040</v>
+        <v>946</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -21837,7 +21808,7 @@
         <v>947</v>
       </c>
       <c r="E519" t="s">
-        <v>2041</v>
+        <v>948</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -21851,7 +21822,7 @@
         <v>949</v>
       </c>
       <c r="E520" t="s">
-        <v>2042</v>
+        <v>950</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
@@ -21865,7 +21836,7 @@
         <v>951</v>
       </c>
       <c r="E521" t="s">
-        <v>2043</v>
+        <v>952</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -21879,7 +21850,7 @@
         <v>953</v>
       </c>
       <c r="E522" t="s">
-        <v>2044</v>
+        <v>954</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
@@ -21890,10 +21861,10 @@
         <v>169</v>
       </c>
       <c r="D523" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E523" t="s">
-        <v>2045</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
@@ -21907,7 +21878,7 @@
         <v>955</v>
       </c>
       <c r="E524" t="s">
-        <v>2046</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
@@ -21935,7 +21906,7 @@
         <v>956</v>
       </c>
       <c r="E526" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
@@ -21963,7 +21934,7 @@
         <v>915</v>
       </c>
       <c r="E528" t="s">
-        <v>2084</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -21977,7 +21948,7 @@
         <v>964</v>
       </c>
       <c r="E529" t="s">
-        <v>2066</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
@@ -22002,7 +21973,7 @@
         <v>177</v>
       </c>
       <c r="D531" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="E531" t="s">
         <v>965</v>
@@ -22016,10 +21987,10 @@
         <v>179</v>
       </c>
       <c r="D532" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E532" t="s">
-        <v>2033</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -22030,10 +22001,10 @@
         <v>182</v>
       </c>
       <c r="D533" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="E533" t="s">
-        <v>2034</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -22044,7 +22015,7 @@
         <v>178</v>
       </c>
       <c r="D534" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="E534" t="s">
         <v>966</v>
@@ -22058,10 +22029,10 @@
         <v>184</v>
       </c>
       <c r="D535" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E535" t="s">
-        <v>2067</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -22072,7 +22043,7 @@
         <v>181</v>
       </c>
       <c r="D536" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="E536" t="s">
         <v>968</v>
@@ -22086,7 +22057,7 @@
         <v>180</v>
       </c>
       <c r="D537" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E537" t="s">
         <v>967</v>
@@ -22100,10 +22071,10 @@
         <v>183</v>
       </c>
       <c r="D538" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="E538" t="s">
-        <v>2035</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
@@ -22111,13 +22082,13 @@
         <v>149</v>
       </c>
       <c r="B539" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="D539" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E539" t="s">
-        <v>2083</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -22125,13 +22096,13 @@
         <v>149</v>
       </c>
       <c r="B540" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D540" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E540" t="s">
-        <v>2068</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
@@ -22139,13 +22110,13 @@
         <v>149</v>
       </c>
       <c r="B541" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="D541" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E541" t="s">
-        <v>2069</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
@@ -22153,13 +22124,13 @@
         <v>149</v>
       </c>
       <c r="B542" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D542" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E542" t="s">
-        <v>2070</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
@@ -22167,13 +22138,13 @@
         <v>149</v>
       </c>
       <c r="B543" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="D543" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E543" t="s">
-        <v>2071</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
@@ -22181,13 +22152,13 @@
         <v>149</v>
       </c>
       <c r="B544" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="D544" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E544" t="s">
-        <v>2072</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -22195,13 +22166,13 @@
         <v>149</v>
       </c>
       <c r="B545" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D545" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E545" t="s">
-        <v>2073</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
@@ -22209,13 +22180,13 @@
         <v>149</v>
       </c>
       <c r="B546" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D546" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E546" t="s">
-        <v>2074</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
@@ -22223,13 +22194,13 @@
         <v>149</v>
       </c>
       <c r="B547" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="D547" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="E547" t="s">
-        <v>2075</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
@@ -22237,13 +22208,13 @@
         <v>149</v>
       </c>
       <c r="B548" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D548" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E548" t="s">
-        <v>2076</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
@@ -22251,13 +22222,13 @@
         <v>149</v>
       </c>
       <c r="B549" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="D549" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E549" t="s">
-        <v>2077</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
@@ -22299,7 +22270,7 @@
         <v>190</v>
       </c>
       <c r="B552" t="s">
-        <v>151</v>
+        <v>2067</v>
       </c>
       <c r="C552" t="s">
         <v>872</v>
@@ -22390,7 +22361,7 @@
         <v>872</v>
       </c>
       <c r="D557" t="s">
-        <v>927</v>
+        <v>2066</v>
       </c>
       <c r="E557" t="s">
         <v>928</v>
@@ -23401,7 +23372,7 @@
         <v>107</v>
       </c>
       <c r="B617" t="s">
-        <v>2086</v>
+        <v>2065</v>
       </c>
       <c r="C617" t="s">
         <v>705</v>
@@ -25008,4 +24979,287 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191AF0E4-1344-47C8-8AFD-E81A12AE782C}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C4" t="s">
+        <v>921</v>
+      </c>
+      <c r="D4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D5" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>929</v>
+      </c>
+      <c r="D8" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>935</v>
+      </c>
+      <c r="D9" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>937</v>
+      </c>
+      <c r="D10" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>939</v>
+      </c>
+      <c r="D11" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>941</v>
+      </c>
+      <c r="D12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>945</v>
+      </c>
+      <c r="D13" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>947</v>
+      </c>
+      <c r="D14" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>949</v>
+      </c>
+      <c r="D15" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>951</v>
+      </c>
+      <c r="D16" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>953</v>
+      </c>
+      <c r="D17" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>972</v>
+      </c>
+      <c r="D18" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>974</v>
+      </c>
+      <c r="D19" t="s">
+        <v>975</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>